--- a/evaluation/performance/results/database.xlsx
+++ b/evaluation/performance/results/database.xlsx
@@ -8,17 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IntelliJ Projects\heap-isolation\evaluation\performance\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F08A48-87F9-4C86-974E-02CE756F00ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893AA6FC-BC15-45E8-A827-E665ECA6BB33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="7890" yWindow="4905" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="db-shootout" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -57,7 +66,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -68,6 +77,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -94,10 +115,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,13 +401,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -512,6 +539,26 @@
       </c>
       <c r="B16" s="2">
         <v>10826476684</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <f>AVERAGE(A2:A16)</f>
+        <v>16965363877.200001</v>
+      </c>
+      <c r="B17" s="3">
+        <f>AVERAGE(B2:B16)</f>
+        <v>15973006893.866667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <f>_xlfn.STDEV.P(A2:A16)</f>
+        <v>6595274711.0306244</v>
+      </c>
+      <c r="B18" s="4">
+        <f>_xlfn.STDEV.P(B2:B16)</f>
+        <v>6624287181.8893881</v>
       </c>
     </row>
   </sheetData>
